--- a/medicine/Enfance/Mort_d'encre/Mort_d'encre.xlsx
+++ b/medicine/Enfance/Mort_d'encre/Mort_d'encre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mort_d%27encre</t>
+          <t>Mort_d'encre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Mort d'encre (titre original : Tintentod) est le troisième tome d'une trilogie d'aventure écrite par Cornelia Funke. Le premier tome de la série intitulé Cœur d'encre est publié en 2003 et adapté au cinéma en 2008. Le second tome, Sang d'encre, a été publié en 2009. Aucun film sur le deuxième tome n'est encore prévu.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mort_d%27encre</t>
+          <t>Mort_d'encre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis que Doigt de poussière est mort et que Tête de vipère est au pouvoir, l'histoire qui retient Meggie et Mo a pris un tour plus violent que jamais. Mais avec l'arrivée de l'hiver vient l'espoir. Si seulement Mo pouvait corriger les erreurs du passé et faire un pacte avec la Mort... Mais celle-ci exige bien des sacrifices.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mort_d%27encre</t>
+          <t>Mort_d'encre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Personnages (classés par ordre alphabétique)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Balbulus : Balbulus est un célèbre enlumineur. Néanmoins, il est cupide et obsédé par l'argent.
 Batiste
